--- a/XLS Predictor/HT predictor.xlsx
+++ b/XLS Predictor/HT predictor.xlsx
@@ -1844,9 +1844,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1885,9 +1885,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1925,7 +1925,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1997,7 +1997,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2177,11 +2177,11 @@
   <dimension ref="B1:BV201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="T79" sqref="T79"/>
       <selection pane="topRight" activeCell="T79" sqref="T79"/>
       <selection pane="bottomLeft" activeCell="T79" sqref="T79"/>
-      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11671,7 +11671,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="18">
+  <dataValidations disablePrompts="1" count="18">
     <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="E90">
       <formula1>0</formula1>
       <formula2>90</formula2>
